--- a/data/marchespublics/marches_publics_tenders.xlsx
+++ b/data/marchespublics/marches_publics_tenders.xlsx
@@ -14,96 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
-  <si>
-    <t>deadline_date</t>
-  </si>
-  <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>publication_date</t>
-  </si>
-  <si>
-    <t>execution_location</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+  <si>
+    <t>objet</t>
+  </si>
+  <si>
+    <t>date_limite</t>
+  </si>
+  <si>
+    <t>Objet : Entretien et réparation de matériels électriques aux stations piscicoles relevant du Centre National d'Hydrobiologie et de Pisciculture d’Azrou (lot unique).</t>
+  </si>
+  <si>
+    <t>Objet : Achat et fourniture de matériels de campement destinés aux Parcs Nationaux relevant de la Direction Régionale de l’Agence Nationale des Eaux et Forêts de Fès Meknès répartis en deux lots ...</t>
+  </si>
+  <si>
+    <t>Objet : Fourniture de la machine (AQUARIUS-TRUXOR DM 4700 B ou similaire) pour l’aménagement des milieux aquatiques relevant du Centre National d'Hydrobiologie et de Pisciculture (lot unique). ...</t>
+  </si>
+  <si>
+    <t>Objet : Fourniture et pose de panneaux de signalisation au Parc National d’Ifrane relevant de la Direction Régionale de l’Agence Nationale des Eaux et Forêts de Fès-Meknès (Lot unique). ...</t>
+  </si>
+  <si>
+    <t>Objet : LA CONCEPTION ARCHITECTURALE ET LE SUIVI DES TRAVAUX DE CONSTRUCTION DU BLOC FONCIER DE L’ANCFCC D’OUJDA.</t>
+  </si>
+  <si>
+    <t>Objet : Achat et installation de matériel, mobilier de bureau et matériel de cuisine destiné à l’Hôpital des Spécialités Régional de Tétouan</t>
+  </si>
+  <si>
+    <t>Objet : Les prestations de gardiennage et de surveillance des locaux de la Direction Régionale de l’Artisanat à Oujda et ses annexes administratives et des Etablissements de la Formation Professionnelles dans la Région de ...</t>
+  </si>
+  <si>
+    <t>Objet : Gardiennage et surveillance des Bâtiments Administratifs relevant de la Direction Régionale de l’Artisanat et de l’Economie Sociale Souss Massa et ses entités en lot unique.</t>
+  </si>
+  <si>
+    <t>Objet : LA CONCEPTION ARCHITECTURALE ET LE SUIVI DES TRAVAUX DE CONSTRUCTION DU BLOC FONCIER DE L’ANCFCC DE TAOURIRT.</t>
+  </si>
+  <si>
+    <t>Objet : LA CONCEPTION ARCHITECTURALE ET LE SUIVI DES TRAVAUX DE CONSTRUCTION DU BLOC FONCIER DE L’ANCFCC DE GUERCIF</t>
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>Objet : Entretien et réparation de matériels électriques aux stations piscicoles relevant du Centre National d'Hydrobiologie et de Pisciculture d’Azrou (lot unique).</t>
-  </si>
-  <si>
-    <t>Objet : Achat et fourniture de matériels de campement destinés aux Parcs Nationaux relevant de la Direction Régionale de l’Agence Nationale des Eaux et Forêts de Fès Meknès répartis en deux lots ...</t>
-  </si>
-  <si>
-    <t>Objet : Fourniture de la machine (AQUARIUS-TRUXOR DM 4700 B ou similaire) pour l’aménagement des milieux aquatiques relevant du Centre National d'Hydrobiologie et de Pisciculture (lot unique). ...</t>
-  </si>
-  <si>
-    <t>Objet : Fourniture et pose de panneaux de signalisation au Parc National d’Ifrane relevant de la Direction Régionale de l’Agence Nationale des Eaux et Forêts de Fès-Meknès (Lot unique). ...</t>
-  </si>
-  <si>
-    <t>Objet : LA CONCEPTION ARCHITECTURALE ET LE SUIVI DES TRAVAUX DE CONSTRUCTION DU BLOC FONCIER DE L’ANCFCC D’OUJDA.</t>
-  </si>
-  <si>
-    <t>Objet : Achat et installation de matériel, mobilier de bureau et matériel de cuisine destiné à l’Hôpital des Spécialités Régional de Tétouan</t>
-  </si>
-  <si>
-    <t>Objet : Les prestations de gardiennage et de surveillance des locaux de la Direction Régionale de l’Artisanat à Oujda et ses annexes administratives et des Etablissements de la Formation Professionnelles dans la Région de ...</t>
-  </si>
-  <si>
-    <t>Objet : Gardiennage et surveillance des Bâtiments Administratifs relevant de la Direction Régionale de l’Artisanat et de l’Economie Sociale Souss Massa et ses entités en lot unique.</t>
-  </si>
-  <si>
-    <t>Objet : LA CONCEPTION ARCHITECTURALE ET LE SUIVI DES TRAVAUX DE CONSTRUCTION DU BLOC FONCIER DE L’ANCFCC DE TAOURIRT.</t>
-  </si>
-  <si>
-    <t>Objet : LA CONCEPTION ARCHITECTURALE ET LE SUIVI DES TRAVAUX DE CONSTRUCTION DU BLOC FONCIER DE L’ANCFCC DE GUERCIF</t>
-  </si>
-  <si>
-    <t>06/06/2025</t>
-  </si>
-  <si>
-    <t>10/06/2025</t>
-  </si>
-  <si>
-    <t>28/05/2025</t>
-  </si>
-  <si>
-    <t>12/06/2025</t>
-  </si>
-  <si>
-    <t>13/06/2025</t>
-  </si>
-  <si>
-    <t>IFRANE</t>
-  </si>
-  <si>
-    <t>IFRANE
-TAZA
-...</t>
-  </si>
-  <si>
-    <t>OUJDA-ANGAD</t>
-  </si>
-  <si>
-    <t>TETOUAN</t>
-  </si>
-  <si>
-    <t>OUJDA-ANGAD
-NADOR
-...</t>
-  </si>
-  <si>
-    <t>AGADIR IDA OU TANANE
-INEZGANE-AIT MELLOUL
-...</t>
-  </si>
-  <si>
-    <t>TAOURIRT</t>
-  </si>
-  <si>
-    <t>GUERCIF</t>
   </si>
 </sst>
 </file>
@@ -461,169 +410,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/marchespublics/marches_publics_tenders.xlsx
+++ b/data/marchespublics/marches_publics_tenders.xlsx
@@ -22,6 +22,12 @@
     <t>date_limite</t>
   </si>
   <si>
+    <t>Objet : Acquisition des disjoncteurs 72,5 kV pour la Division Exploitation Transport Marrakech</t>
+  </si>
+  <si>
+    <t>Objet : Peinture des lignes HTB du réseau de Division Exploitation Transport Agadir Lot n° 1 : Peinture des lignes 60 &amp; 225 kV Lot n° 2 : Peinture des lignes 400 kV</t>
+  </si>
+  <si>
     <t>Objet : Entretien et réparation de matériels électriques aux stations piscicoles relevant du Centre National d'Hydrobiologie et de Pisciculture d’Azrou (lot unique).</t>
   </si>
   <si>
@@ -43,13 +49,7 @@
     <t>Objet : Les prestations de gardiennage et de surveillance des locaux de la Direction Régionale de l’Artisanat à Oujda et ses annexes administratives et des Etablissements de la Formation Professionnelles dans la Région de ...</t>
   </si>
   <si>
-    <t>Objet : Gardiennage et surveillance des Bâtiments Administratifs relevant de la Direction Régionale de l’Artisanat et de l’Economie Sociale Souss Massa et ses entités en lot unique.</t>
-  </si>
-  <si>
     <t>Objet : LA CONCEPTION ARCHITECTURALE ET LE SUIVI DES TRAVAUX DE CONSTRUCTION DU BLOC FONCIER DE L’ANCFCC DE TAOURIRT.</t>
-  </si>
-  <si>
-    <t>Objet : LA CONCEPTION ARCHITECTURALE ET LE SUIVI DES TRAVAUX DE CONSTRUCTION DU BLOC FONCIER DE L’ANCFCC DE GUERCIF</t>
   </si>
   <si>
     <t>N/A</t>

--- a/data/marchespublics/marches_publics_tenders.xlsx
+++ b/data/marchespublics/marches_publics_tenders.xlsx
@@ -49,7 +49,7 @@
     <t>Objet : Les prestations de gardiennage et de surveillance des locaux de la Direction Régionale de l’Artisanat à Oujda et ses annexes administratives et des Etablissements de la Formation Professionnelles dans la Région de ...</t>
   </si>
   <si>
-    <t>Objet : LA CONCEPTION ARCHITECTURALE ET LE SUIVI DES TRAVAUX DE CONSTRUCTION DU BLOC FONCIER DE L’ANCFCC DE TAOURIRT.</t>
+    <t>Objet : ACHAT DU MATERIEL INFORMATIQUE ET DU LOGICIEL DESTINE AUX RESPONSABLES DES ETABLISSEMENTS DE JEUNES RELEVANT DU MINISTERE DE LA JEUNESSE, DE LA CULTURE ET DE LA COMMUNICATION - DEPARTEMENT DE LA JEUNESSE- LOT UNIQUE-. ...</t>
   </si>
   <si>
     <t>N/A</t>

--- a/data/marchespublics/marches_publics_tenders.xlsx
+++ b/data/marchespublics/marches_publics_tenders.xlsx
@@ -22,12 +22,24 @@
     <t>date_limite</t>
   </si>
   <si>
+    <t>Objet : Audit comptable et financier de l'ANEAQ pour l'ex 2023</t>
+  </si>
+  <si>
     <t>Objet : Acquisition des disjoncteurs 72,5 kV pour la Division Exploitation Transport Marrakech</t>
   </si>
   <si>
     <t>Objet : Peinture des lignes HTB du réseau de Division Exploitation Transport Agadir Lot n° 1 : Peinture des lignes 60 &amp; 225 kV Lot n° 2 : Peinture des lignes 400 kV</t>
   </si>
   <si>
+    <t>Objet : Exécution des travaux de régénération dans les périmètres relevant de la Direction Régionale de l’Agence Nationale des Eaux et Forêts de Fès Meknès repartis sur neuf lots ...</t>
+  </si>
+  <si>
+    <t>Objet : Exécution des travaux de reboisement au profit de la Direction Régionale de l’Agence Nationale des Eaux et Forêts de Fès-Meknès répartis sur deux lots</t>
+  </si>
+  <si>
+    <t>Objet : Exécution des travaux de sylviculture et conduite de peuplements forestiers dans les forêts relevant de la Direction Régionale de l’Agence Nationale des Eaux et Forêts Fès-Meknès, sur une superficie totale de 100 ha, la ...</t>
+  </si>
+  <si>
     <t>Objet : Entretien et réparation de matériels électriques aux stations piscicoles relevant du Centre National d'Hydrobiologie et de Pisciculture d’Azrou (lot unique).</t>
   </si>
   <si>
@@ -38,18 +50,6 @@
   </si>
   <si>
     <t>Objet : Fourniture et pose de panneaux de signalisation au Parc National d’Ifrane relevant de la Direction Régionale de l’Agence Nationale des Eaux et Forêts de Fès-Meknès (Lot unique). ...</t>
-  </si>
-  <si>
-    <t>Objet : LA CONCEPTION ARCHITECTURALE ET LE SUIVI DES TRAVAUX DE CONSTRUCTION DU BLOC FONCIER DE L’ANCFCC D’OUJDA.</t>
-  </si>
-  <si>
-    <t>Objet : Achat et installation de matériel, mobilier de bureau et matériel de cuisine destiné à l’Hôpital des Spécialités Régional de Tétouan</t>
-  </si>
-  <si>
-    <t>Objet : Les prestations de gardiennage et de surveillance des locaux de la Direction Régionale de l’Artisanat à Oujda et ses annexes administratives et des Etablissements de la Formation Professionnelles dans la Région de ...</t>
-  </si>
-  <si>
-    <t>Objet : ACHAT DU MATERIEL INFORMATIQUE ET DU LOGICIEL DESTINE AUX RESPONSABLES DES ETABLISSEMENTS DE JEUNES RELEVANT DU MINISTERE DE LA JEUNESSE, DE LA CULTURE ET DE LA COMMUNICATION - DEPARTEMENT DE LA JEUNESSE- LOT UNIQUE-. ...</t>
   </si>
   <si>
     <t>N/A</t>
